--- a/Data.xlsx
+++ b/Data.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27660" windowHeight="15180" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="27660" windowHeight="15180" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="车组里程修时信息" sheetId="1" r:id="rId1"/>
-    <sheet name="待排交路信息" sheetId="5" r:id="rId2"/>
-    <sheet name="Day1检修上线情况" sheetId="8" r:id="rId3"/>
-    <sheet name="班组检修能力" sheetId="4" r:id="rId4"/>
-    <sheet name="候选交路" sheetId="6" r:id="rId5"/>
-    <sheet name="车组修后恢复信息" sheetId="9" r:id="rId6"/>
+    <sheet name="车组初始化" sheetId="10" r:id="rId2"/>
+    <sheet name="待排交路信息" sheetId="5" r:id="rId3"/>
+    <sheet name="Day1检修上线情况" sheetId="8" r:id="rId4"/>
+    <sheet name="班组检修能力" sheetId="4" r:id="rId5"/>
+    <sheet name="候选交路" sheetId="6" r:id="rId6"/>
+    <sheet name="车组修后恢复信息" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">车组里程修时信息!$B$1:$D$36</definedName>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="109">
   <si>
     <t>车组号</t>
   </si>
@@ -361,14 +362,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -535,7 +529,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -652,12 +646,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -719,12 +707,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,13 +891,16 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -924,91 +909,94 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1017,10 +1005,10 @@
     <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1029,19 +1017,13 @@
     <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1049,14 +1031,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -1086,7 +1068,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1126,8 +1108,8 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1487,7 +1469,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -2149,6 +2131,531 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:D36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <cols>
+    <col min="3" max="3" width="13.4519230769231" customWidth="1"/>
+    <col min="4" max="4" width="14.0961538461538" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>53</v>
+      </c>
+      <c r="C2">
+        <v>53206</v>
+      </c>
+      <c r="D2">
+        <v>6706</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>46</v>
+      </c>
+      <c r="C3">
+        <v>46697</v>
+      </c>
+      <c r="D3">
+        <v>165230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>48</v>
+      </c>
+      <c r="C4">
+        <v>48936</v>
+      </c>
+      <c r="D4">
+        <v>206634</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>39</v>
+      </c>
+      <c r="C5">
+        <v>39758</v>
+      </c>
+      <c r="D5">
+        <v>60868</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>22697</v>
+      </c>
+      <c r="D6">
+        <v>152713</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>4758</v>
+      </c>
+      <c r="D7">
+        <v>208095</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>34</v>
+      </c>
+      <c r="C8">
+        <v>34300</v>
+      </c>
+      <c r="D8">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>65</v>
+      </c>
+      <c r="C9">
+        <v>65828</v>
+      </c>
+      <c r="D9">
+        <v>63200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>25200</v>
+      </c>
+      <c r="D10">
+        <v>221218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>18928</v>
+      </c>
+      <c r="D11">
+        <v>201827</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>57</v>
+      </c>
+      <c r="C12">
+        <v>57692</v>
+      </c>
+      <c r="D12">
+        <v>207706</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>14164</v>
+      </c>
+      <c r="D13">
+        <v>158309</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>17858</v>
+      </c>
+      <c r="D14">
+        <v>194148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>7478</v>
+      </c>
+      <c r="D15">
+        <v>71805</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>51</v>
+      </c>
+      <c r="C16">
+        <v>52174</v>
+      </c>
+      <c r="D16">
+        <v>131899</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>67</v>
+      </c>
+      <c r="C17">
+        <v>66000</v>
+      </c>
+      <c r="D17">
+        <v>144276</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>38</v>
+      </c>
+      <c r="C18">
+        <v>39114</v>
+      </c>
+      <c r="D18">
+        <v>243086</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>11860</v>
+      </c>
+      <c r="D19">
+        <v>252860</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>51</v>
+      </c>
+      <c r="C20">
+        <v>51976</v>
+      </c>
+      <c r="D20">
+        <v>251976</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>37</v>
+      </c>
+      <c r="C21">
+        <v>38057</v>
+      </c>
+      <c r="D21">
+        <v>193714</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>41</v>
+      </c>
+      <c r="C22">
+        <v>42112</v>
+      </c>
+      <c r="D22">
+        <v>146482</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>19</v>
+      </c>
+      <c r="C23">
+        <v>19554</v>
+      </c>
+      <c r="D23">
+        <v>164307</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>64</v>
+      </c>
+      <c r="C24">
+        <v>64622</v>
+      </c>
+      <c r="D24">
+        <v>182980</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>13</v>
+      </c>
+      <c r="C25">
+        <v>13622</v>
+      </c>
+      <c r="D25">
+        <v>109887</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>20</v>
+      </c>
+      <c r="C26">
+        <v>20703</v>
+      </c>
+      <c r="D26">
+        <v>214619</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <v>43</v>
+      </c>
+      <c r="C27">
+        <v>44945</v>
+      </c>
+      <c r="D27">
+        <v>206888</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <v>55</v>
+      </c>
+      <c r="C28">
+        <v>55588</v>
+      </c>
+      <c r="D28">
+        <v>91374</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <v>18</v>
+      </c>
+      <c r="C29">
+        <v>18587</v>
+      </c>
+      <c r="D29">
+        <v>103039</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <v>22</v>
+      </c>
+      <c r="C30">
+        <v>22212</v>
+      </c>
+      <c r="D30">
+        <v>159402</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>7894</v>
+      </c>
+      <c r="D31">
+        <v>159225</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32">
+        <v>67</v>
+      </c>
+      <c r="C32">
+        <v>68170</v>
+      </c>
+      <c r="D32">
+        <v>69472</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33">
+        <v>61</v>
+      </c>
+      <c r="C33">
+        <v>62240</v>
+      </c>
+      <c r="D33">
+        <v>59781</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34">
+        <v>26</v>
+      </c>
+      <c r="C34">
+        <v>26295</v>
+      </c>
+      <c r="D34">
+        <v>144603</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35">
+        <v>36</v>
+      </c>
+      <c r="C35">
+        <v>36208</v>
+      </c>
+      <c r="D35">
+        <v>26358</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>35220</v>
+      </c>
+      <c r="D36">
+        <v>239892</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2156,7 +2663,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3:C4"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -3433,13 +3940,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AJ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83653846153846" defaultRowHeight="16.8"/>
@@ -7634,7 +8141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I3"/>
@@ -7743,7 +8250,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:U35"/>
@@ -9090,7 +9597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C3"/>
